--- a/Structured Analysis/Behavioural Model/CSPEC/CSPEC.xlsx
+++ b/Structured Analysis/Behavioural Model/CSPEC/CSPEC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Search</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Events and Preconditions</t>
+  </si>
+  <si>
+    <t>kick out</t>
+  </si>
+  <si>
+    <t>type == Timer</t>
   </si>
 </sst>
 </file>
@@ -256,38 +262,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B19" sqref="B19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,197 +584,220 @@
     <col min="2" max="2" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
+      <c r="C1" s="14">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14">
         <v>-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
         <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
         <v>-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
         <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12">
         <v>-6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
         <v>-7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
         <v>-8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>-1</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>-9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="13" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D20" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A1:A18"/>
+  <mergeCells count="19">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A1:A20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D1:D2"/>
@@ -782,7 +811,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
